--- a/Initialized_Data.xlsx
+++ b/Initialized_Data.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5ef074c61d2afe73/Desktop/Stefano/In_the_NL/Thesis/Code/git_hub_repos/Thesis_main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="11_F25DC773A252ABDACC10484421DC4AE85BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34420F21-41EE-4E35-A616-BA71875368A0}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="11_F25DC773A252ABDACC10484421DC4AE85BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E511BEC2-0ACA-42F8-A30E-0ED6D3BD2FAC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EV_data" sheetId="1" r:id="rId1"/>
-    <sheet name="EV_time" sheetId="8" r:id="rId2"/>
+    <sheet name="time" sheetId="8" r:id="rId2"/>
     <sheet name="EV_chargers" sheetId="7" r:id="rId3"/>
     <sheet name="grid_connection" sheetId="2" r:id="rId4"/>
     <sheet name="transformers" sheetId="3" r:id="rId5"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
     <t>EV1</t>
   </si>
@@ -49,21 +49,12 @@
     <t>EV5</t>
   </si>
   <si>
-    <t>SOE_kwh</t>
-  </si>
-  <si>
-    <t>P_kw</t>
-  </si>
-  <si>
     <t>Ta</t>
   </si>
   <si>
     <t>Td</t>
   </si>
   <si>
-    <t>Emax_kwh</t>
-  </si>
-  <si>
     <t>Pmax_kw</t>
   </si>
   <si>
@@ -230,13 +221,37 @@
   </si>
   <si>
     <t>h24</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>capacity_kwh</t>
+  </si>
+  <si>
+    <t>EVs</t>
+  </si>
+  <si>
+    <t>SOC_a</t>
+  </si>
+  <si>
+    <t>SOC_d</t>
+  </si>
+  <si>
+    <t>consumption_kwh_km</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +261,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -271,8 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -288,6 +312,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -553,56 +581,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -617,135 +657,135 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3CEF5C-8F80-4D83-B766-BE0CCA7ADF11}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>5</v>
+      <c r="B1" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -756,42 +796,54 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6470F473-A674-40AD-8245-D34850450897}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -812,27 +864,27 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -853,27 +905,27 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -894,27 +946,27 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -935,27 +987,27 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -976,27 +1028,27 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Initialized_Data.xlsx
+++ b/Initialized_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5ef074c61d2afe73/Desktop/Stefano/In_the_NL/Thesis/Code/git_hub_repos/Thesis_main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="11_F25DC773A252ABDACC10484421DC4AE85BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E511BEC2-0ACA-42F8-A30E-0ED6D3BD2FAC}"/>
+  <xr:revisionPtr revIDLastSave="176" documentId="11_F25DC773A252ABDACC10484421DC4AE85BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{226A5402-69C0-4D34-98A0-477BEA137E9B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EV_data" sheetId="1" r:id="rId1"/>
@@ -22,17 +22,28 @@
     <sheet name="load" sheetId="5" r:id="rId7"/>
     <sheet name="BESS" sheetId="6" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>EV1</t>
   </si>
@@ -49,12 +60,6 @@
     <t>EV5</t>
   </si>
   <si>
-    <t>Ta</t>
-  </si>
-  <si>
-    <t>Td</t>
-  </si>
-  <si>
     <t>Pmax_kw</t>
   </si>
   <si>
@@ -232,26 +237,50 @@
     <t>AC</t>
   </si>
   <si>
-    <t>capacity_kwh</t>
-  </si>
-  <si>
-    <t>EVs</t>
-  </si>
-  <si>
-    <t>SOC_a</t>
-  </si>
-  <si>
-    <t>SOC_d</t>
-  </si>
-  <si>
     <t>consumption_kwh_km</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>electricity_demand</t>
+  </si>
+  <si>
+    <t>heating_demand</t>
+  </si>
+  <si>
+    <t>Energy capacity [kWh]</t>
+  </si>
+  <si>
+    <t>Max charging power [kW]</t>
+  </si>
+  <si>
+    <t>Arrival SOC [%]</t>
+  </si>
+  <si>
+    <t>Departure SOC [%]</t>
+  </si>
+  <si>
+    <t>Tarrival [h]</t>
+  </si>
+  <si>
+    <t>Tdeparture [h]</t>
+  </si>
+  <si>
+    <t>Power rated [kW]</t>
+  </si>
+  <si>
+    <t>Max power [kW]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +298,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="7"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -294,9 +331,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -312,10 +350,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -581,68 +615,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>60</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -655,137 +714,150 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3CEF5C-8F80-4D83-B766-BE0CCA7ADF11}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -799,7 +871,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -808,42 +880,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>7</v>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -854,37 +926,45 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A75EA3B-87C0-4820-AD28-D888BE3A1108}">
-  <dimension ref="A2:A6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -905,27 +985,27 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -936,37 +1016,45 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30100CC-A7EA-4BE3-9D50-3B9909602373}">
-  <dimension ref="A2:A6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -987,27 +1075,27 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1028,27 +1116,27 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Initialized_Data.xlsx
+++ b/Initialized_Data.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5ef074c61d2afe73/Desktop/Stefano/In_the_NL/Thesis/Code/git_hub_repos/Thesis_main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="176" documentId="11_F25DC773A252ABDACC10484421DC4AE85BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{226A5402-69C0-4D34-98A0-477BEA137E9B}"/>
+  <xr:revisionPtr revIDLastSave="223" documentId="11_F25DC773A252ABDACC10484421DC4AE85BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F462AEB9-D509-486E-9E73-07EB54E681C5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EV_data" sheetId="1" r:id="rId1"/>
-    <sheet name="time" sheetId="8" r:id="rId2"/>
+    <sheet name="demand" sheetId="8" r:id="rId2"/>
     <sheet name="EV_chargers" sheetId="7" r:id="rId3"/>
     <sheet name="grid_connection" sheetId="2" r:id="rId4"/>
     <sheet name="transformers" sheetId="3" r:id="rId5"/>
@@ -240,18 +240,6 @@
     <t>consumption_kwh_km</t>
   </si>
   <si>
-    <t>hours</t>
-  </si>
-  <si>
-    <t>EV</t>
-  </si>
-  <si>
-    <t>electricity_demand</t>
-  </si>
-  <si>
-    <t>heating_demand</t>
-  </si>
-  <si>
     <t>Energy capacity [kWh]</t>
   </si>
   <si>
@@ -274,6 +262,18 @@
   </si>
   <si>
     <t>Max power [kW]</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Heating power demand [kW]</t>
+  </si>
+  <si>
+    <t>Electricity power demand [kW]</t>
+  </si>
+  <si>
+    <t>EV power demand [kW]</t>
   </si>
 </sst>
 </file>
@@ -637,22 +637,22 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>64</v>
@@ -716,148 +716,293 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3CEF5C-8F80-4D83-B766-BE0CCA7ADF11}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>37</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>38</v>
       </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>39</v>
       </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>40</v>
       </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>41</v>
       </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>42</v>
       </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>43</v>
       </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>44</v>
       </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>45</v>
       </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>46</v>
       </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>47</v>
       </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>48</v>
       </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>49</v>
       </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>50</v>
       </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>60</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -928,7 +1073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A75EA3B-87C0-4820-AD28-D888BE3A1108}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -939,7 +1084,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1029,7 +1174,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/Initialized_Data.xlsx
+++ b/Initialized_Data.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5ef074c61d2afe73/Desktop/Stefano/In_the_NL/Thesis/Code/git_hub_repos/Thesis_main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="223" documentId="11_F25DC773A252ABDACC10484421DC4AE85BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F462AEB9-D509-486E-9E73-07EB54E681C5}"/>
+  <xr:revisionPtr revIDLastSave="288" documentId="11_F25DC773A252ABDACC10484421DC4AE85BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41071F96-251D-483F-9ED7-F78010783BD3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="EV_data" sheetId="1" r:id="rId1"/>
-    <sheet name="demand" sheetId="8" r:id="rId2"/>
-    <sheet name="EV_chargers" sheetId="7" r:id="rId3"/>
-    <sheet name="grid_connection" sheetId="2" r:id="rId4"/>
-    <sheet name="transformers" sheetId="3" r:id="rId5"/>
-    <sheet name="HP" sheetId="4" r:id="rId6"/>
-    <sheet name="load" sheetId="5" r:id="rId7"/>
-    <sheet name="BESS" sheetId="6" r:id="rId8"/>
+    <sheet name="general" sheetId="9" r:id="rId1"/>
+    <sheet name="EV_data" sheetId="1" r:id="rId2"/>
+    <sheet name="demand" sheetId="8" r:id="rId3"/>
+    <sheet name="EV_chargers" sheetId="7" r:id="rId4"/>
+    <sheet name="grid_connection" sheetId="2" r:id="rId5"/>
+    <sheet name="transformers" sheetId="3" r:id="rId6"/>
+    <sheet name="HP" sheetId="4" r:id="rId7"/>
+    <sheet name="load" sheetId="5" r:id="rId8"/>
+    <sheet name="BESS" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
   <si>
     <t>EV1</t>
   </si>
@@ -60,9 +61,6 @@
     <t>EV5</t>
   </si>
   <si>
-    <t>Pmax_kw</t>
-  </si>
-  <si>
     <t>L1</t>
   </si>
   <si>
@@ -274,13 +272,31 @@
   </si>
   <si>
     <t>EV power demand [kW]</t>
+  </si>
+  <si>
+    <t>Load type</t>
+  </si>
+  <si>
+    <t>Battery capacity [kWh]</t>
+  </si>
+  <si>
+    <t>Charging power [kW]</t>
+  </si>
+  <si>
+    <t>Discharging power [kW]</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>EV power rated [kW]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,6 +326,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -331,10 +355,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,11 +639,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B71938-0BEC-4C90-B2F6-BA4E3A01A0E6}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -637,28 +693,28 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -670,11 +726,20 @@
       <c r="B2">
         <v>50</v>
       </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
       <c r="D2">
         <v>20</v>
       </c>
       <c r="E2">
         <v>80</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -684,26 +749,62 @@
       <c r="B3">
         <v>60</v>
       </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
       <c r="D3">
         <v>10</v>
       </c>
       <c r="E3">
         <v>50</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>18</v>
+      </c>
+      <c r="G6">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -712,12 +813,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3CEF5C-8F80-4D83-B766-BE0CCA7ADF11}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -729,21 +830,21 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -754,7 +855,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -765,7 +866,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -776,7 +877,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -787,7 +888,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -798,7 +899,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -809,7 +910,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -820,7 +921,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -831,7 +932,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -842,7 +943,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -853,7 +954,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -864,7 +965,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -875,7 +976,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -886,7 +987,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -897,7 +998,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -908,7 +1009,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -919,7 +1020,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -930,7 +1031,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -941,7 +1042,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -952,7 +1053,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -963,7 +1064,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -974,7 +1075,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -985,7 +1086,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -996,71 +1097,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25">
         <v>24</v>
       </c>
       <c r="E25">
         <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6470F473-A674-40AD-8245-D34850450897}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1070,6 +1113,79 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6470F473-A674-40AD-8245-D34850450897}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A75EA3B-87C0-4820-AD28-D888BE3A1108}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -1084,32 +1200,32 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1118,7 +1234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6810DC2-D60E-4CE4-8FA5-9F3BC0A79915}">
   <dimension ref="A2:A6"/>
   <sheetViews>
@@ -1130,27 +1246,27 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1159,7 +1275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30100CC-A7EA-4BE3-9D50-3B9909602373}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -1174,73 +1290,32 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040E6A00-A27E-4746-9488-5A4DF8BA58C6}">
-  <dimension ref="A2:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1250,38 +1325,103 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040E6A00-A27E-4746-9488-5A4DF8BA58C6}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A555FD97-96FC-49D2-9932-FFA35100F3CE}">
-  <dimension ref="A2:A6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Initialized_Data.xlsx
+++ b/Initialized_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5ef074c61d2afe73/Desktop/Stefano/In_the_NL/Thesis/Code/git_hub_repos/Thesis_main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="288" documentId="11_F25DC773A252ABDACC10484421DC4AE85BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41071F96-251D-483F-9ED7-F78010783BD3}"/>
+  <xr:revisionPtr revIDLastSave="289" documentId="11_F25DC773A252ABDACC10484421DC4AE85BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D28DBF7-E922-45BE-9FB9-74F3FD74A50D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="9" r:id="rId1"/>
@@ -642,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B71938-0BEC-4C90-B2F6-BA4E3A01A0E6}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -661,7 +661,7 @@
         <v>80</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -673,7 +673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -818,7 +818,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Initialized_Data.xlsx
+++ b/Initialized_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5ef074c61d2afe73/Desktop/Stefano/In_the_NL/Thesis/Code/git_hub_repos/Thesis_main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="289" documentId="11_F25DC773A252ABDACC10484421DC4AE85BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D28DBF7-E922-45BE-9FB9-74F3FD74A50D}"/>
+  <xr:revisionPtr revIDLastSave="302" documentId="11_F25DC773A252ABDACC10484421DC4AE85BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{034FD54F-7E60-4637-9632-9A029EA84970}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="9" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
   <si>
     <t>EV1</t>
   </si>
@@ -290,6 +290,12 @@
   </si>
   <si>
     <t>EV power rated [kW]</t>
+  </si>
+  <si>
+    <t>SOC goal</t>
+  </si>
+  <si>
+    <t>Volume charge</t>
   </si>
 </sst>
 </file>
@@ -335,12 +341,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -355,11 +367,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,28 +654,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B71938-0BEC-4C90-B2F6-BA4E3A01A0E6}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>80</v>
       </c>
       <c r="B2">
         <v>25</v>
+      </c>
+      <c r="C2">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -671,18 +692,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.5546875" bestFit="1" customWidth="1"/>
@@ -692,16 +713,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -723,17 +744,14 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5">
         <v>50</v>
       </c>
       <c r="C2">
         <v>11</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="5">
         <v>20</v>
-      </c>
-      <c r="E2">
-        <v>80</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -746,17 +764,11 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>60</v>
       </c>
       <c r="C3">
         <v>10</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>50</v>
       </c>
       <c r="F3">
         <v>8</v>
@@ -772,6 +784,9 @@
       <c r="C4">
         <v>9</v>
       </c>
+      <c r="D4" s="5">
+        <v>80</v>
+      </c>
       <c r="F4">
         <v>2</v>
       </c>
@@ -800,11 +815,19 @@
       <c r="C6">
         <v>7</v>
       </c>
+      <c r="D6" s="5">
+        <v>79</v>
+      </c>
       <c r="F6">
         <v>18</v>
       </c>
       <c r="G6">
         <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Initialized_Data.xlsx
+++ b/Initialized_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5ef074c61d2afe73/Desktop/Stefano/In_the_NL/Thesis/Code/git_hub_repos/Thesis_main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="302" documentId="11_F25DC773A252ABDACC10484421DC4AE85BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{034FD54F-7E60-4637-9632-9A029EA84970}"/>
+  <xr:revisionPtr revIDLastSave="329" documentId="11_F25DC773A252ABDACC10484421DC4AE85BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1716B1F1-390E-4C5F-8EC1-7F9FF3F0D6E7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
   <si>
     <t>EV1</t>
   </si>
@@ -136,9 +136,6 @@
     <t>B5</t>
   </si>
   <si>
-    <t>range_km</t>
-  </si>
-  <si>
     <t>CH1</t>
   </si>
   <si>
@@ -235,21 +232,9 @@
     <t>AC</t>
   </si>
   <si>
-    <t>consumption_kwh_km</t>
-  </si>
-  <si>
-    <t>Energy capacity [kWh]</t>
-  </si>
-  <si>
     <t>Max charging power [kW]</t>
   </si>
   <si>
-    <t>Arrival SOC [%]</t>
-  </si>
-  <si>
-    <t>Departure SOC [%]</t>
-  </si>
-  <si>
     <t>Tarrival [h]</t>
   </si>
   <si>
@@ -295,14 +280,17 @@
     <t>SOC goal</t>
   </si>
   <si>
-    <t>Volume charge</t>
+    <t>Min charging power [kW]</t>
+  </si>
+  <si>
+    <t>Charging volume [kWh]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,32 +315,18 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="7"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -367,13 +341,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,15 +639,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B2">
         <v>25</v>
@@ -692,142 +663,138 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2">
         <v>50</v>
       </c>
       <c r="C2">
         <v>11</v>
       </c>
-      <c r="D2" s="5">
-        <v>20</v>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
-        <v>60</v>
+      <c r="B3">
+        <v>50</v>
       </c>
       <c r="C3">
         <v>10</v>
       </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
       <c r="F3">
-        <v>8</v>
-      </c>
-      <c r="G3">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
       <c r="C4">
         <v>9</v>
       </c>
-      <c r="D4" s="5">
-        <v>80</v>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
       <c r="C5">
         <v>8</v>
       </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
       <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
       <c r="C6">
         <v>7</v>
       </c>
-      <c r="D6" s="5">
-        <v>79</v>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>18</v>
       </c>
       <c r="F6">
-        <v>18</v>
-      </c>
-      <c r="G6">
         <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -841,7 +808,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -853,21 +820,21 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -878,7 +845,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -889,7 +856,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -900,7 +867,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -911,7 +878,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -922,7 +889,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -933,7 +900,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -944,7 +911,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -955,7 +922,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -966,7 +933,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -977,7 +944,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -988,7 +955,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -999,7 +966,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -1010,7 +977,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -1021,7 +988,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -1032,7 +999,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -1043,7 +1010,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -1054,7 +1021,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -1065,7 +1032,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -1076,7 +1043,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -1087,7 +1054,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -1098,7 +1065,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -1109,7 +1076,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -1120,7 +1087,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -1149,38 +1116,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="3" t="s">
-        <v>70</v>
+      <c r="B1" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>11</v>
@@ -1188,7 +1155,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -1196,7 +1163,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6">
         <v>11</v>
@@ -1223,7 +1190,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1313,7 +1280,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1362,7 +1329,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1413,13 +1380,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
